--- a/docs/assets/disciplinas/LOB1212.xlsx
+++ b/docs/assets/disciplinas/LOB1212.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-6</t>
+    <t>EA-5</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOB1212.xlsx
+++ b/docs/assets/disciplinas/LOB1212.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,12 +70,15 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos as bases teóricas e experimentais dos métodos instrumentais (quantitativos e qualitativos) de uso mais frequente na área química voltada para os parâmetros das legislações ambientais, incluindo o preparo de amostras e a correta avaliação dos resultados analíticos. Ao final da disciplina, o aluno deve ser capaz de escolher e aplicar a metodologia mais adequada à solução dos problemas analíticos voltados ao meio ambiente.</t>
+    <t>Geral: Formar profissionais em nível superior com capacidade de conhecer a sequência dos procedimentos de análise química de interesse ambiental. Executar procedimentos de análises volumétricas bem como interpretar, avaliar e criticar os resultados obtidos. Específicos: Formar profissionais em nível superior com capacidade de conhecer as etapas da sequência analítica. Conhecer os métodos de preparação de amostras a serem analisadas. Compreender as bases teóricas da química analítica quantitativa de interesse ambiental. Executar procedimentos de análises químicas volumétricas (volumetria por neutralização, volumetria por precipitação, volumetria por oxi-redução e volumetria por complexação), análises ambientais de DBO, DQO, OD e turbidez, bem como interpretar, avaliar e criticar os resultados obtidos.</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>General: Train professionals at a higher level with the ability to know the sequence of chemical analysis procedures of environmental interest. Perform volumetric analysis as well as interpret, evaluate and criticize the results obtained.Specifics: Train professionals at a higher level with the ability to know the steps of the analytical sequence. Know the methods of preparation to be analysed. Understand the theoretical bases of quantitative analytical chemistry of environmental interest. Procedures of volumetric agglomerated analysis (volumetric by neutralization, volumetric by back, volumetric by  oxidation-reduction  and volumetric by complexation), environmental analyses of BOD, COD, OD and turbidity, as well as to interpret, evaluate and criticize the results.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,62 +88,52 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução à Análise Instrumental. Métodos Espectrofotométricos: UV/Visível. Métodos Espectrométricos: Absorção Atômica, Emissão Atômica. Métodos Eletroanalíticos: Potenciometria e Condutimetria. Métodos Cromatográficos: Cromatografia a Gás e Cromatografia Líquida de Alta Eficiência. Métodos Espectroscópicos: Infravermelho e RMN. Outros Métodos: Fluorescência de Raio X, TOC.</t>
+    <t>Fundamentos da análise titulométrica (preparação de amostras e cálculos). Análises titulométricas por precipitação, neutralização, complexação e oxirredução. Análises ambientais de DBO, DQO, OD e turbidez.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Fundamentals of titrometric analysis (preparation of calculations and calculations). Titulometric analyses by exclusive, neutralization, complexation and redox. Environmental analyses of BOD, COD, OD and turbidity.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução à Análise Instrumental. Correlação entre métodos analíticos instrumentais e por via úmida. Preparo de amostras em meio sólido e em meios líquidos aquosos e não aquosos. Solubilização, digestão, fontes de energia aplicadas ao preparo, estabilização de amostras.
-Introdução aos Métodos Espectroanalíticos: Natureza da energia radiante. Espectro eletromagnético. Interação da radiação com a matéria. Absorção seletiva. Absortividade. Lei de Beer-Lambert. Curvas analíticas.
-Introdução à Espectrofotometria no UV/Visível. Instrumentação. Aplicações. Determinações simultâneas. Parte Experimental.
-Introdução às Espectrometrias de Absorção e de Emissão Atômicas. Instrumentação. Interferências. Origem do espectro de emissão atômica. Fontes de excitação. Calibração. Aplicações. Parte Experimental.
-Introdução aos Métodos Eletroanalíticos: Potenciometria e Condutimetria. Instrumentação. Métodos diretos e indiretos. Aplicações. Parte experimental.
-Introdução aos Métodos Cromatográficos. Conceitos básicos dos métodos de separação. Fases móvel e estacionária. Cromatografia em coluna: cromatografia a gás e cromatografia líquida de alta eficiência. Instrumentação. Aplicações. Parte Experimental.
-Introdução à Espectroscopia no Infravermelho e RMN. Instrumentação. Interpretação de espectros. Aplicações. Parte Experimental.
-Introdução à Fluorescência de Raio X. Instrumentação e preparação de amostras. Aplicações. Parte Experimental.
-Introdução à métodos quantitativos de decomposição de amostras. Aplicação de TOC como instrumentação. Aplicações. Parte Experimental.</t>
+    <t>- Fundamentos de análise titulométrica e cálculos em análise titulométrica.- Titulometria de neutralização: fundamentos, indicadores de titulação, curvas de titulação ácido base.- Titulometria complexométrica: fundamentos, complexometria com EDTA.- Titulação de oxiredução: fundamentos e principais indicadores- Titulometria de precipitação: fundamentos, indicadores, argentimetria.- Análises quantitativas em solo, água, alimentos etc.- Análises ambientais: DBO, DQO, OD e turbidez</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>- Fundamentals of titulometric analysis and calculations in titulometric analysis.- Neutralization titrometry: fundamentals, titration indicators, acid base titration curves.- Complexometric titrometry: fundamentals, complexometry with EDTA.- Titration of oxireduction: fundamentals and main indicators- Precipitation titrometry: fundamentals, indicators, argentimetry.- Quantitative analysis of soil, water, food, etc.- Environmental analysis: BOD, COD, OD and turbidity</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
   </si>
   <si>
-    <t>A avaliação da disciplina será feita por meio de avaliações escritas individuais (provas) e avaliações de atividades em grupo (relatórios das aulas práticas, trabalhos escritos e/ou seminários).</t>
+    <t>O método de avaliação será composto por avaliações teóricas, práticas e relatórios de atividades de práticas laboratoriais.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A média final (MF) será calculada pela média entre duas avaliações teóricas (individuais) e trabalhos experimentais (grupos), este em função das atividades práticas realizadas durante cada bimestre, sendo as avaliações individuais correspondentes a 75 % da composição de MF e as avaliações em grupo correspondentes a 25 % da composição de MF.</t>
+    <t>Para o cálculo da nota final (NF) será feita a média aritmética das avaliações aplicadas. Estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota de Recuperação (NR) será dada pela média aritmética entre a Nota do Semestre (MF) e a Prova da Recuperação (PR), sendo considerado aprovado o aluno que obtiver NR maior ou igual a cinco.</t>
+    <t>Avaliação de recuperação (R) envolvendo todo o conteúdo da disciplina. Média Final = (NF+R) / 2 e estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Bibliografia
-Skoog, D.A., Holler, F.J. e Nieman, T.A., PRINCÍPIOS DE ANÁLISE INSTRUMENTAL, 5ª ed., Bookman, Porto Alegre, 2002.
-Mendham,J., Denney, R.C., Barnes, J.D. e Thomas, M., VOGEL: ANÁLISE QUÍMICA QUANTITATIVA, 6ª ed., Livros Técnicos e Científicos, Rio de Janeiro, 2002.
-Ohlweiler, O.A., FUNDAMENTOS DE ANÁLISE INSTRUMENTAL, Livros Técnicos e Científicos, Rio de Janeiro, 1981.
-Collins, C.H., Braga, G.L. e Bonato, P.S. (org.), FUNDAMENTOS DE CROMATOGRAFIA, 1ª ed., Editora da UNICAMP, Campinas, 2006.
-Bibliografia complementar
-Christian, G.D., ANALYTICAL CHEMISTRY, 4ª ed., John Wiley &amp; Sons, Nova York, 1986.
-Dyer, J.R., APLICAÇÃO DA ESPECTROSCOPIA DE ABSORÇÃO AOS COMPOSTOS ORGÂNICOS, 1ª reimpressão, Edgard Blucher, São Paulo, 1977.
-Willard, H.H., Merrite, L. e Deab, J., INSTRUMENTAÇÃO ANALÍTICA, Fundação Calouste Gulbekian, Lisboa, 1989.</t>
+    <t>Harris, D.C. EXPLORANDO A QUÍMICA ANALÍTICA, 4ª edição, LTC, Rio de Janeiro – RJ, 2011Skoog, D.A., Holler, F.J. e Nieman, T.A., PRINCÍPIOS DE ANÁLISE INSTRUMENTAL, 5ª ed., Bookman, Porto Alegre, 2002.Mendham,J., Denney, R.C., Barnes, J.D. e Thomas, M., Vogel: ANÁLISE QUÍMICA QUANTITATIVA, 6ª ed., Livros Técnicos e Científicos, Rio de Janeiro -RJ, 2002.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -622,112 +615,130 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1212.xlsx
+++ b/docs/assets/disciplinas/LOB1212.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Geral: Formar profissionais em nível superior com capacidade de conhecer a sequência dos procedimentos de análise química de interesse ambiental. Executar procedimentos de análises volumétricas bem como interpretar, avaliar e criticar os resultados obtidos. Específicos: Formar profissionais em nível superior com capacidade de conhecer as etapas da sequência analítica. Conhecer os métodos de preparação de amostras a serem analisadas. Compreender as bases teóricas da química analítica quantitativa de interesse ambiental. Executar procedimentos de análises químicas volumétricas (volumetria por neutralização, volumetria por precipitação, volumetria por oxi-redução e volumetria por complexação), análises ambientais de DBO, DQO, OD e turbidez, bem como interpretar, avaliar e criticar os resultados obtidos.</t>
+    <t>8855158 - Morun Bernardino Neto</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8855158 - Morun Bernardino Neto</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fundamentos da análise titulométrica (preparação de amostras e cálculos). Análises titulométricas por precipitação, neutralização, complexação e oxirredução. Análises ambientais de DBO, DQO, OD e turbidez.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>- Fundamentos de análise titulométrica e cálculos em análise titulométrica.- Titulometria de neutralização: fundamentos, indicadores de titulação, curvas de titulação ácido base.- Titulometria complexométrica: fundamentos, complexometria com EDTA.- Titulação de oxiredução: fundamentos e principais indicadores- Titulometria de precipitação: fundamentos, indicadores, argentimetria.- Análises quantitativas em solo, água, alimentos etc.- Análises ambientais: DBO, DQO, OD e turbidez</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>O método de avaliação será composto por avaliações teóricas, práticas e relatórios de atividades de práticas laboratoriais.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Para o cálculo da nota final (NF) será feita a média aritmética das avaliações aplicadas. Estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Avaliação de recuperação (R) envolvendo todo o conteúdo da disciplina. Média Final = (NF+R) / 2 e estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Harris, D.C. EXPLORANDO A QUÍMICA ANALÍTICA, 4ª edição, LTC, Rio de Janeiro – RJ, 2011Skoog, D.A., Holler, F.J. e Nieman, T.A., PRINCÍPIOS DE ANÁLISE INSTRUMENTAL, 5ª ed., Bookman, Porto Alegre, 2002.Mendham,J., Denney, R.C., Barnes, J.D. e Thomas, M., Vogel: ANÁLISE QUÍMICA QUANTITATIVA, 6ª ed., Livros Técnicos e Científicos, Rio de Janeiro -RJ, 2002.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1212.xlsx
+++ b/docs/assets/disciplinas/LOB1212.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Geral: Formar profissionais em nível superior com capacidade de conhecer a sequência dos procedimentos de análise química de interesse ambiental. Executar procedimentos de análises volumétricas bem como interpretar, avaliar e criticar os resultados obtidos. Específicos: Formar profissionais em nível superior com capacidade de conhecer as etapas da sequência analítica. Conhecer os métodos de preparação de amostras a serem analisadas. Compreender as bases teóricas da química analítica quantitativa de interesse ambiental. Executar procedimentos de análises químicas volumétricas (volumetria por neutralização, volumetria por precipitação, volumetria por oxi-redução e volumetria por complexação), análises ambientais de DBO, DQO, OD e turbidez, bem como interpretar, avaliar e criticar os resultados obtidos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>General: Train professionals at a higher level with the ability to know the sequence of chemical analysis procedures of environmental interest. Perform volumetric analysis as well as interpret, evaluate and criticize the results obtained.Specifics: Train professionals at a higher level with the ability to know the steps of the analytical sequence. Know the methods of preparation to be analysed. Understand the theoretical bases of quantitative analytical chemistry of environmental interest. Procedures of volumetric agglomerated analysis (volumetric by neutralization, volumetric by back, volumetric by  oxidation-reduction  and volumetric by complexation), environmental analyses of BOD, COD, OD and turbidity, as well as to interpret, evaluate and criticize the results.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8855158 - Morun Bernardino Neto</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>General: Train professionals at a higher level with the ability to know the sequence of chemical analysis procedures of environmental interest. Perform volumetric analysis as well as interpret, evaluate and criticize the results obtained.Specifics: Train professionals at a higher level with the ability to know the steps of the analytical sequence. Know the methods of preparation to be analysed. Understand the theoretical bases of quantitative analytical chemistry of environmental interest. Procedures of volumetric agglomerated analysis (volumetric by neutralization, volumetric by back, volumetric by  oxidation-reduction  and volumetric by complexation), environmental analyses of BOD, COD, OD and turbidity, as well as to interpret, evaluate and criticize the results.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Fundamentos da análise titulométrica (preparação de amostras e cálculos). Análises titulométricas por precipitação, neutralização, complexação e oxirredução. Análises ambientais de DBO, DQO, OD e turbidez.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- Fundamentos de análise titulométrica e cálculos em análise titulométrica.- Titulometria de neutralização: fundamentos, indicadores de titulação, curvas de titulação ácido base.- Titulometria complexométrica: fundamentos, complexometria com EDTA.- Titulação de oxiredução: fundamentos e principais indicadores- Titulometria de precipitação: fundamentos, indicadores, argentimetria.- Análises quantitativas em solo, água, alimentos etc.- Análises ambientais: DBO, DQO, OD e turbidez</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>O método de avaliação será composto por avaliações teóricas, práticas e relatórios de atividades de práticas laboratoriais.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O método de avaliação será composto por avaliações teóricas, práticas e relatórios de atividades de práticas laboratoriais.</t>
+    <t>Para o cálculo da nota final (NF) será feita a média aritmética das avaliações aplicadas. Estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Para o cálculo da nota final (NF) será feita a média aritmética das avaliações aplicadas. Estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.</t>
+    <t>Avaliação de recuperação (R) envolvendo todo o conteúdo da disciplina. Média Final = (NF+R) / 2 e estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Avaliação de recuperação (R) envolvendo todo o conteúdo da disciplina. Média Final = (NF+R) / 2 e estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.</t>
+    <t>Harris, D.C. EXPLORANDO A QUÍMICA ANALÍTICA, 4ª edição, LTC, Rio de Janeiro – RJ, 2011Skoog, D.A., Holler, F.J. e Nieman, T.A., PRINCÍPIOS DE ANÁLISE INSTRUMENTAL, 5ª ed., Bookman, Porto Alegre, 2002.Mendham,J., Denney, R.C., Barnes, J.D. e Thomas, M., Vogel: ANÁLISE QUÍMICA QUANTITATIVA, 6ª ed., Livros Técnicos e Científicos, Rio de Janeiro -RJ, 2002.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
